--- a/项目文档/统计/统计.xlsx
+++ b/项目文档/统计/统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="360" windowWidth="25600" windowHeight="17200" tabRatio="500"/>
+    <workbookView xWindow="9320" yWindow="4580" windowWidth="16560" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -77,55 +77,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关闭金币提示窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source:进入的来源，1.点击开始按钮，2.点击门进入，3.点击下一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promptbuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num:要购买的是第几个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num:要购买的是第几个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guessback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在猜题界面点返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesserror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesssuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>promptclose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭金币提示窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source:进入的来源，1.点击开始按钮，2.点击门进入，3.点击下一题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promptbuy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num:要购买的是第几个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num:要购买的是第几个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guessback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在猜题界面点返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guesserror</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guesssuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,37 +626,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
